--- a/减脂增肌执行表的副本.xlsx
+++ b/减脂增肌执行表的副本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2B997FC-C8CD-4E4E-B338-D673B955469F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{24F83CB5-A791-4845-8670-0AE4CF1292B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="800" windowWidth="34160" windowHeight="20740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="440" windowWidth="34160" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="409">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3851,10 +3851,6 @@
     <rPh sb="0" eb="3">
       <t>di'yi'zho</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
@@ -4024,6 +4020,17 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屁股</t>
+    <rPh sb="0" eb="2">
+      <t>pi'gi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5933,8 +5940,8 @@
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="H21" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -6188,11 +6195,11 @@
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
       <c r="K26" s="114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L26" s="115"/>
       <c r="M26" s="90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
@@ -6397,7 +6404,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -6437,10 +6444,10 @@
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>390</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>391</v>
       </c>
       <c r="L1" s="77"/>
       <c r="M1" s="77" t="s">
@@ -6461,10 +6468,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="40" customHeight="1">
@@ -6472,15 +6479,17 @@
         <v>90</v>
       </c>
       <c r="B3" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="79"/>
+      <c r="D3" s="79">
+        <v>200</v>
+      </c>
+      <c r="E3" s="79">
+        <v>200</v>
+      </c>
       <c r="F3" s="79" t="s">
         <v>386</v>
       </c>
@@ -6491,40 +6500,46 @@
         <v>437.5</v>
       </c>
       <c r="M3" s="90" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="40" customHeight="1">
       <c r="C4" s="77">
         <v>2200</v>
       </c>
+      <c r="D4" s="77">
+        <v>800</v>
+      </c>
+      <c r="E4" s="77">
+        <v>800</v>
+      </c>
       <c r="F4" s="96">
         <v>450</v>
       </c>
       <c r="M4" s="90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="40" customHeight="1">
       <c r="M5" s="90" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N5" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1">
       <c r="M6" s="90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N6" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8589,10 +8604,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y670"/>
+  <dimension ref="A1:Y671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -9818,7 +9833,7 @@
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -9866,7 +9881,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
@@ -9874,7 +9889,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
@@ -10173,7 +10188,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
@@ -10486,87 +10501,117 @@
         <v>16522.939999999999</v>
       </c>
     </row>
-    <row r="255" spans="9:10">
-      <c r="I255" s="78"/>
-      <c r="J255"/>
+    <row r="216" spans="1:4" ht="28">
+      <c r="A216" s="159" t="s">
+        <v>407</v>
+      </c>
+      <c r="B216" s="160"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="B217" s="85">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="C220" s="70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="B221" s="86">
+        <f>SUM(B217:B220)</f>
+        <v>68</v>
+      </c>
+      <c r="C221" s="72">
+        <f>SUM(C215:C220)</f>
+        <v>16590.939999999999</v>
+      </c>
     </row>
     <row r="256" spans="9:10">
       <c r="I256" s="78"/>
       <c r="J256"/>
     </row>
-    <row r="325" spans="10:10">
-      <c r="J325" s="80"/>
-    </row>
-    <row r="367" spans="9:9">
-      <c r="I367" s="79"/>
-    </row>
-    <row r="655" spans="15:15">
-      <c r="O655" s="79"/>
-    </row>
-    <row r="660" spans="14:25">
-      <c r="Y660">
-        <v>9</v>
-      </c>
+    <row r="257" spans="9:10">
+      <c r="I257" s="78"/>
+      <c r="J257"/>
+    </row>
+    <row r="326" spans="10:10">
+      <c r="J326" s="80"/>
+    </row>
+    <row r="368" spans="9:9">
+      <c r="I368" s="79"/>
+    </row>
+    <row r="656" spans="15:15">
+      <c r="O656" s="79"/>
     </row>
     <row r="661" spans="14:25">
       <c r="Y661">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="662" spans="14:25">
       <c r="Y662">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="663" spans="14:25">
+      <c r="Y663">
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="14:25">
-      <c r="N663" s="79"/>
-      <c r="Y663">
-        <v>10</v>
-      </c>
-    </row>
     <row r="664" spans="14:25">
+      <c r="N664" s="79"/>
       <c r="Y664">
         <v>10</v>
       </c>
     </row>
     <row r="665" spans="14:25">
       <c r="Y665">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="666" spans="14:25">
       <c r="Y666">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="667" spans="14:25">
       <c r="Y667">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668" spans="14:25">
       <c r="Y668">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="14:25">
       <c r="Y669">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="670" spans="14:25">
+      <c r="Y670">
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="14:25">
-      <c r="Y670" s="81">
-        <f>SUM(Y660:Y669)</f>
+    <row r="671" spans="14:25">
+      <c r="Y671" s="81">
+        <f>SUM(Y661:Y670)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A113:B113"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A23:B23"/>
@@ -10574,6 +10619,7 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A216:B216"/>
     <mergeCell ref="A212:B212"/>
     <mergeCell ref="A201:B201"/>
     <mergeCell ref="A195:B195"/>
@@ -10589,13 +10635,12 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A216" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>